--- a/biology/Médecine/Maison_municipale_de_retraite_de_Reims/Maison_municipale_de_retraite_de_Reims.xlsx
+++ b/biology/Médecine/Maison_municipale_de_retraite_de_Reims/Maison_municipale_de_retraite_de_Reims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Maison municipale de retraite de Reims était un ensemble immobilier situé à Reims dans le département français de la  marne dans la région historique de Champagne Ardenne.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Maison municipale de retraite de Reims était située 26 rue simon à Reims dans la Marne.
 </t>
@@ -542,13 +556,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet de construction d'une maison de retraite a été adopté par le conseil municipal du 18 juillet 1860.
-Il a retenu le principe du paiement d'une pension. La Maison Municipale de Retraite a été construite grâce aux dons des habitants et de la part de la Société des Déchets de la Fabrique de Reims allouée à la Ville de Reims[1].
+Il a retenu le principe du paiement d'une pension. La Maison Municipale de Retraite a été construite grâce aux dons des habitants et de la part de la Société des Déchets de la Fabrique de Reims allouée à la Ville de Reims.
 Elle a été construite en plusieurs tranches dans  l'ancien  jardin  de  l'abbaye de Saint-Remi.
-On y est admis, à partir de 60 ans, en payant une pension graduée avec un minimum de 450Fr par an  et en fournissant le mobilier de la chambre occupée[2].
-Le nombre de lit était de 400[3].
+On y est admis, à partir de 60 ans, en payant une pension graduée avec un minimum de 450Fr par an  et en fournissant le mobilier de la chambre occupée.
+Le nombre de lit était de 400.
 Le bâtiment a été détruit dans le cadre de la rénovation du quartier de St Rémi en 1971.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  bâtiment est l’œuvre de l’architecte Narcisse Brunette.
 Le bâtiment était en forme de U sur quatre étages.
